--- a/日経社説ー春秋/政治の季節迎える中国の激しい前哨戦.xlsx
+++ b/日経社説ー春秋/政治の季節迎える中国の激しい前哨戦.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,105 +19,184 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>一端</t>
-  </si>
-  <si>
-    <t>冒頭</t>
-  </si>
-  <si>
-    <t>取り上げる</t>
-  </si>
-  <si>
-    <t>人民元</t>
-  </si>
-  <si>
-    <t>火種</t>
-  </si>
-  <si>
-    <t>秋波</t>
-  </si>
-  <si>
-    <t>公有</t>
-  </si>
-  <si>
-    <t>サイド</t>
-  </si>
-  <si>
-    <t>正念場</t>
-  </si>
-  <si>
-    <t>いちはな</t>
-  </si>
-  <si>
-    <t>全体の一部分。</t>
-  </si>
-  <si>
-    <t>ぼうとう</t>
-  </si>
-  <si>
-    <t>文章・談話の初め。また、一般に物事の始め。</t>
-  </si>
-  <si>
-    <t>とりあげる</t>
-  </si>
-  <si>
-    <t>意見・申し出などを聞き入れる。受理する。採用する。</t>
-  </si>
-  <si>
-    <t>じんみんげん</t>
-  </si>
-  <si>
-    <t>ひだね</t>
-  </si>
-  <si>
-    <t>こうゆう</t>
-  </si>
-  <si>
-    <t>中国人民銀行が発行する中国の法定通貨。</t>
-  </si>
-  <si>
-    <t>争い・騒ぎの原因。</t>
-  </si>
-  <si>
-    <t>しゅうは</t>
-  </si>
-  <si>
-    <t>美人の涼しい目元。また、女性が異性の気を引くためにする色っぽい目つき。流し目。</t>
-  </si>
-  <si>
-    <t>公の機関が所有していること。</t>
-  </si>
-  <si>
-    <t>世話をする。取り持ちをする。</t>
-  </si>
-  <si>
-    <t>きもいる</t>
-  </si>
-  <si>
-    <t>肝煎る</t>
-  </si>
-  <si>
-    <t>一方の側。</t>
-  </si>
-  <si>
-    <t>しょうねんば</t>
-  </si>
-  <si>
-    <t>その人の真価を問われる大事な場面。重要な局面。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>中国の全国人民代表大会（全人代、国会に相当）が閉幕した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これにより中国は、秋以降に開く予定の共産党大会を睨んだ政治の季節を迎える。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>その一端は１５日の李克強首相の記者会見にも窺えた。冒頭、中国の国営メディアでなく米CNNテレビの質問に答えることで、米国重視の姿勢を示した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>記者会見で李首相は、米国との「貿易戦争」を望まないと表明した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>と同時に、貿易戦争がおきれば「真っ先に被害を受けるのは米企業だ」との味方も紹介し、トランプ政権を牽制した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トランプ氏が大統領選で盛んに取り上げた人民元の問題は深刻な火種と言える。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>アジアと世界の経済にも大きく影響するだけに、透明性のある議論を望みたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これは南シナ海問題も同じだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全人代の議論では国内経済に関する踏み込み不足が目立った。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習主席肝煎りの供給サイドの改革も、柱となる生産能力の削減はこれからが正念場だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>共産党大会を前に政治</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・社会の安定に力を注がざるをえない面があるにしても、改革の停滞は心配だ。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>党大会で最大の焦点は最高指導部の人事だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それを睨んだ前哨戦は水面下で激しさを増す。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五年目に入った習近平体制の一挙一動を注視しなくてはならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当面の焦点は内政の延長とも言える外交だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>習近平国家首席率いる指導部にとっては目下、米国のトランプ米政権との関係づくりが需要な課題と言える。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米中間では現在、習主席が４月にも訪米しトランプ大統領と初会談する日程の調整が進んでいる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>言うまでもなく、大統領の重視する経済</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>貿易問題が鍵を握る。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>北朝鮮の核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ミサイル開発や南シナ海の問題など、安全保障上の課題も多い。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対北朝鮮制裁決議について中国は「全面的、厳格的に履行している」とする一方、米軍の地上配備型ミサイル迎撃システム（THAAD）の韓国配備に強く反対し、特定の韓国企業を標的に圧力を加えてもいる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米国に秋波を送る姿勢と、韓国への異例の厳しい態度には矛盾がある。中国がアジアの緊張緩和を本当に望むなら、周辺国との協力に舵を切るべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>たとえば国有企業改革では、民間経済を意味する「非公有経済」の発展を四年前から掲げてきたが、未だ成果が上がっていない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>対外政策への影響も予想される。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,11 +220,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,135 +497,145 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="27">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="27">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="40.5">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="27">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="27">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="27">
+      <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>